--- a/users_dataset.xlsx
+++ b/users_dataset.xlsx
@@ -143,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,10 +157,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,8 +285,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,8 +316,8 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -334,9 +330,8 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,9 +344,8 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,9 +358,8 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,9 +372,8 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,93 +386,92 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="b">
-        <v>1</v>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="b">
-        <v>1</v>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="b">
-        <v>1</v>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="b">
-        <v>1</v>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="b">
-        <v>1</v>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
